--- a/medicine/Maladie à coronavirus 2019/Freiheitstrychler/Freiheitstrychler.xlsx
+++ b/medicine/Maladie à coronavirus 2019/Freiheitstrychler/Freiheitstrychler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les Freiheitstrychler (littéralement : sonneurs de liberté[1]) sont un mouvement de sonneurs de cloche (de) suisses opposés aux mesures liées à la pandémie de Covid-19.
+Les Freiheitstrychler (littéralement : sonneurs de liberté) sont un mouvement de sonneurs de cloche (de) suisses opposés aux mesures liées à la pandémie de Covid-19.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mouvement naît peu après les premières mesures en 2020[2] ; il est notamment coordonné par Andy Benz. Le mouvement est originaire du canton de Schwytz[3], et a depuis essaimé en Allemagne et en Autriche[4]. En septembre 2021, le conseiller fédéral Ueli Maurer s'affiche avec un t-shirt du mouvement, ce qui provoque la controverse[5].
-Le mouvement, dont les « relents nationalistes et xénophobes »[1] sont dénoncés dès ses débuts, manifeste en Suisse alémanique contre les réfugiés à partir de 2023[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mouvement naît peu après les premières mesures en 2020 ; il est notamment coordonné par Andy Benz. Le mouvement est originaire du canton de Schwytz, et a depuis essaimé en Allemagne et en Autriche. En septembre 2021, le conseiller fédéral Ueli Maurer s'affiche avec un t-shirt du mouvement, ce qui provoque la controverse.
+Le mouvement, dont les « relents nationalistes et xénophobes » sont dénoncés dès ses débuts, manifeste en Suisse alémanique contre les réfugiés à partir de 2023.
 </t>
         </is>
       </c>
